--- a/processed_files/preguntas.xlsx
+++ b/processed_files/preguntas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="377">
   <si>
     <t>Sección</t>
   </si>
@@ -190,6 +190,9 @@
     <t>5.1 ¿Esta vivienda...</t>
   </si>
   <si>
+    <t>5.2 Por esta vivienda que (RESPUESTA DE 5.1), ¿cuánto se paga al mes?</t>
+  </si>
+  <si>
     <t>5.6 ¿Alguna persona de este hogar es la dueña o el dueño de esta vivienda?</t>
   </si>
   <si>
@@ -241,6 +244,9 @@
     <t>5.16 ¿Cuánto les otorgaron (se usó) de (del) (sus propios recursos)?</t>
   </si>
   <si>
+    <t>5.16a ¿Esta cantidad fue en...</t>
+  </si>
+  <si>
     <t>5.15 Para financiar la compra (construcción) de esta vivienda, ¿alguna persona de este hogar utilizó subsidio Federal (CONAVI, FONHAPO, etcétera)?</t>
   </si>
   <si>
@@ -739,6 +745,9 @@
     <t>P5_1</t>
   </si>
   <si>
+    <t>P5_2</t>
+  </si>
+  <si>
     <t>P5_6_1</t>
   </si>
   <si>
@@ -788,6 +797,9 @@
   </si>
   <si>
     <t>P5_16_07</t>
+  </si>
+  <si>
+    <t>P5_16A_07</t>
   </si>
   <si>
     <t>P5_15_08</t>
@@ -1490,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1515,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1526,7 +1538,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1537,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1548,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1559,7 +1571,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1570,7 +1582,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1581,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1592,7 +1604,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1603,7 +1615,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1614,7 +1626,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1625,7 +1637,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1636,7 +1648,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1647,7 +1659,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1658,7 +1670,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1669,7 +1681,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1680,7 +1692,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1691,7 +1703,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1702,7 +1714,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1713,7 +1725,7 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1724,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1735,7 +1747,7 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1746,7 +1758,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1757,7 +1769,7 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1768,7 +1780,7 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1779,7 +1791,7 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1790,7 +1802,7 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1801,7 +1813,7 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1812,7 +1824,7 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1823,7 +1835,7 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1834,7 +1846,7 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1845,7 +1857,7 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1856,7 +1868,7 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1867,7 +1879,7 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1878,7 +1890,7 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1889,7 +1901,7 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1900,7 +1912,7 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1911,7 +1923,7 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1922,7 +1934,7 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1933,7 +1945,7 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1944,7 +1956,7 @@
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1955,7 +1967,7 @@
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1966,7 +1978,7 @@
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1977,7 +1989,7 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1988,7 +2000,7 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1999,7 +2011,7 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2010,7 +2022,7 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2021,7 +2033,7 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2032,7 +2044,7 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2043,7 +2055,7 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2054,7 +2066,7 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2065,7 +2077,7 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2076,7 +2088,7 @@
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2087,7 +2099,7 @@
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2098,7 +2110,7 @@
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2109,7 +2121,7 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2120,7 +2132,7 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2131,7 +2143,7 @@
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2142,7 +2154,7 @@
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2153,7 +2165,7 @@
         <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2164,7 +2176,7 @@
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2175,7 +2187,7 @@
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2186,7 +2198,7 @@
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2197,7 +2209,7 @@
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2208,7 +2220,7 @@
         <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2219,7 +2231,7 @@
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2230,7 +2242,7 @@
         <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2241,7 +2253,7 @@
         <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2252,7 +2264,7 @@
         <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2263,7 +2275,7 @@
         <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2274,7 +2286,7 @@
         <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2285,7 +2297,7 @@
         <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2296,7 +2308,7 @@
         <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2307,7 +2319,7 @@
         <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2318,7 +2330,7 @@
         <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2329,7 +2341,7 @@
         <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2340,7 +2352,7 @@
         <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2351,7 +2363,7 @@
         <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2362,7 +2374,7 @@
         <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2373,7 +2385,7 @@
         <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2384,7 +2396,7 @@
         <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2395,7 +2407,7 @@
         <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2406,7 +2418,7 @@
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2417,7 +2429,7 @@
         <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2428,7 +2440,7 @@
         <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2439,7 +2451,7 @@
         <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2450,7 +2462,7 @@
         <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2461,7 +2473,7 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2472,7 +2484,7 @@
         <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2483,7 +2495,7 @@
         <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2494,7 +2506,7 @@
         <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2505,7 +2517,7 @@
         <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2516,7 +2528,7 @@
         <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2527,7 +2539,7 @@
         <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2538,7 +2550,7 @@
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2549,7 +2561,7 @@
         <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2560,7 +2572,7 @@
         <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2571,7 +2583,7 @@
         <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2582,7 +2594,7 @@
         <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2593,7 +2605,7 @@
         <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2604,7 +2616,7 @@
         <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2615,7 +2627,7 @@
         <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2626,7 +2638,7 @@
         <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2637,7 +2649,7 @@
         <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2648,7 +2660,7 @@
         <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2659,7 +2671,7 @@
         <v>111</v>
       </c>
       <c r="C106" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2670,7 +2682,7 @@
         <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2681,7 +2693,7 @@
         <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2692,7 +2704,7 @@
         <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2703,7 +2715,7 @@
         <v>115</v>
       </c>
       <c r="C110" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2714,7 +2726,7 @@
         <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2725,7 +2737,7 @@
         <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2736,7 +2748,7 @@
         <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2747,7 +2759,7 @@
         <v>119</v>
       </c>
       <c r="C114" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2758,7 +2770,7 @@
         <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2769,7 +2781,7 @@
         <v>121</v>
       </c>
       <c r="C116" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2780,7 +2792,7 @@
         <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2791,7 +2803,7 @@
         <v>123</v>
       </c>
       <c r="C118" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2802,29 +2814,29 @@
         <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
         <v>125</v>
       </c>
       <c r="C120" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
         <v>126</v>
       </c>
       <c r="C121" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2835,7 +2847,7 @@
         <v>127</v>
       </c>
       <c r="C122" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2846,7 +2858,7 @@
         <v>128</v>
       </c>
       <c r="C123" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2857,7 +2869,7 @@
         <v>129</v>
       </c>
       <c r="C124" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2868,7 +2880,7 @@
         <v>130</v>
       </c>
       <c r="C125" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2879,7 +2891,7 @@
         <v>131</v>
       </c>
       <c r="C126" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2890,7 +2902,7 @@
         <v>132</v>
       </c>
       <c r="C127" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2901,7 +2913,7 @@
         <v>133</v>
       </c>
       <c r="C128" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2912,7 +2924,7 @@
         <v>134</v>
       </c>
       <c r="C129" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2923,7 +2935,7 @@
         <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2934,7 +2946,7 @@
         <v>136</v>
       </c>
       <c r="C131" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2945,7 +2957,7 @@
         <v>137</v>
       </c>
       <c r="C132" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2956,7 +2968,7 @@
         <v>138</v>
       </c>
       <c r="C133" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2967,7 +2979,7 @@
         <v>139</v>
       </c>
       <c r="C134" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2978,7 +2990,7 @@
         <v>140</v>
       </c>
       <c r="C135" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2989,7 +3001,7 @@
         <v>141</v>
       </c>
       <c r="C136" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3000,7 +3012,7 @@
         <v>142</v>
       </c>
       <c r="C137" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3011,7 +3023,7 @@
         <v>143</v>
       </c>
       <c r="C138" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3022,7 +3034,7 @@
         <v>144</v>
       </c>
       <c r="C139" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3033,7 +3045,7 @@
         <v>145</v>
       </c>
       <c r="C140" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3044,7 +3056,7 @@
         <v>146</v>
       </c>
       <c r="C141" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3055,7 +3067,7 @@
         <v>147</v>
       </c>
       <c r="C142" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3066,7 +3078,7 @@
         <v>148</v>
       </c>
       <c r="C143" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3077,7 +3089,7 @@
         <v>149</v>
       </c>
       <c r="C144" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3088,7 +3100,7 @@
         <v>150</v>
       </c>
       <c r="C145" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3099,7 +3111,7 @@
         <v>151</v>
       </c>
       <c r="C146" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3110,7 +3122,7 @@
         <v>152</v>
       </c>
       <c r="C147" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3121,7 +3133,7 @@
         <v>153</v>
       </c>
       <c r="C148" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3132,7 +3144,7 @@
         <v>154</v>
       </c>
       <c r="C149" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3143,7 +3155,7 @@
         <v>155</v>
       </c>
       <c r="C150" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3154,7 +3166,7 @@
         <v>156</v>
       </c>
       <c r="C151" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3165,7 +3177,7 @@
         <v>157</v>
       </c>
       <c r="C152" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3176,7 +3188,7 @@
         <v>158</v>
       </c>
       <c r="C153" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3187,7 +3199,7 @@
         <v>159</v>
       </c>
       <c r="C154" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3198,7 +3210,7 @@
         <v>160</v>
       </c>
       <c r="C155" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3209,7 +3221,7 @@
         <v>161</v>
       </c>
       <c r="C156" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3220,7 +3232,7 @@
         <v>162</v>
       </c>
       <c r="C157" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3231,7 +3243,7 @@
         <v>163</v>
       </c>
       <c r="C158" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3242,7 +3254,7 @@
         <v>164</v>
       </c>
       <c r="C159" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3253,7 +3265,7 @@
         <v>165</v>
       </c>
       <c r="C160" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3264,7 +3276,7 @@
         <v>166</v>
       </c>
       <c r="C161" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3275,7 +3287,7 @@
         <v>167</v>
       </c>
       <c r="C162" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3286,7 +3298,7 @@
         <v>168</v>
       </c>
       <c r="C163" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3297,7 +3309,7 @@
         <v>169</v>
       </c>
       <c r="C164" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3308,7 +3320,7 @@
         <v>170</v>
       </c>
       <c r="C165" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3319,7 +3331,7 @@
         <v>171</v>
       </c>
       <c r="C166" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3330,7 +3342,7 @@
         <v>172</v>
       </c>
       <c r="C167" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3341,7 +3353,7 @@
         <v>173</v>
       </c>
       <c r="C168" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3352,7 +3364,7 @@
         <v>174</v>
       </c>
       <c r="C169" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3363,7 +3375,7 @@
         <v>175</v>
       </c>
       <c r="C170" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3374,7 +3386,7 @@
         <v>176</v>
       </c>
       <c r="C171" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3385,7 +3397,7 @@
         <v>177</v>
       </c>
       <c r="C172" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3396,7 +3408,7 @@
         <v>178</v>
       </c>
       <c r="C173" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3407,7 +3419,7 @@
         <v>179</v>
       </c>
       <c r="C174" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3418,7 +3430,7 @@
         <v>180</v>
       </c>
       <c r="C175" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3429,7 +3441,7 @@
         <v>181</v>
       </c>
       <c r="C176" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3440,7 +3452,7 @@
         <v>182</v>
       </c>
       <c r="C177" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3451,7 +3463,7 @@
         <v>183</v>
       </c>
       <c r="C178" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3462,7 +3474,7 @@
         <v>184</v>
       </c>
       <c r="C179" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3473,7 +3485,7 @@
         <v>185</v>
       </c>
       <c r="C180" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3484,7 +3496,7 @@
         <v>186</v>
       </c>
       <c r="C181" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3495,7 +3507,7 @@
         <v>187</v>
       </c>
       <c r="C182" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3506,7 +3518,7 @@
         <v>188</v>
       </c>
       <c r="C183" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3517,7 +3529,29 @@
         <v>189</v>
       </c>
       <c r="C184" t="s">
-        <v>372</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" t="s">
+        <v>190</v>
+      </c>
+      <c r="C185" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>191</v>
+      </c>
+      <c r="C186" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
